--- a/Schwab Accounts Comparison.xlsx
+++ b/Schwab Accounts Comparison.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmont\git\mysql-db-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E934CFD-799D-4AC5-8390-F6325DD95B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7340884C-81B8-47E0-9BC2-7FB66DC523B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{64934D54-A41F-43A9-93DE-D7A9EAF4D357}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{64934D54-A41F-43A9-93DE-D7A9EAF4D357}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
     <sheet name="Orders" sheetId="2" r:id="rId2"/>
+    <sheet name="Transactions" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="484">
   <si>
     <r>
       <t xml:space="preserve">    </t>
@@ -13482,6 +13483,4820 @@
         <family val="3"/>
       </rPr>
       <t>"2024-05-17T15:54:01+0000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"activityId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>65921024312</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"time"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2024-05-06T18:04:34+0000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TRADE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"status"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"VALID"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"subAccount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"MARGIN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"tradeDate"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2024-05-06T18:04:34+0000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"positionId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1729164176</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"orderId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13955013788</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"netAmount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>371.69</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"transferItems"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: [</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"assetType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CURRENCY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"status"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ACTIVE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"symbol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CURRENCY_USD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"description"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"USD currency"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"instrumentId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"closingPrice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"amount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-0.01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"feeType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TAF_FEE"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"amount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>3.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-3.25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"feeType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"COMMISSION"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"amount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"feeType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"SEC_FEE"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"amount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-0.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"feeType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"OPT_REG_FEE"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"symbol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"QQQ_052024P420"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"description"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"INVESCO QQQ TRUST PUT May 420"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"instrumentId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>183721030</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"expirationDate"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2024-05-20T04:00:00+0000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"rootSymbol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"QQQ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"strikePercent"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"deliverableNumber"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"deliverableUnits"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"deliverable"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"assetType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"COLLECTIVE_INVESTMENT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"status"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ACTIVE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"symbol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"QQQ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"description"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"INVSC QQQ TRUST SRS 1 ETF IV"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"instrumentId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>69233491</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"closingPrice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>480.18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"EXCHANGE_TRADED_FUND"</t>
+    </r>
+  </si>
+  <si>
+    <t>                            }</t>
+  </si>
+  <si>
+    <t>                    ],</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"optionPremiumMultiplier"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"strikePrice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>420.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"underlyingSymbol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"QQQ"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"underlyingCusip"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"46090E103"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"amount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-5.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>375.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"price"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"positionEffect"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"OPENING"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"activityId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>65831435307</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"time"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2024-05-02T16:13:12+0000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"tradeDate"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2024-05-02T16:13:12+0000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"positionId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1722821861</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"orderId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>13930159794</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"netAmount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>65.35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"amount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-2.6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"amount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-0.04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"symbol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"DIA_051724P355"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"description"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"SPDR DOW JONES IND PUT May 355"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"instrumentId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>178671797</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"expirationDate"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2024-05-17T04:00:00+0000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"rootSymbol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"DIA"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"symbol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"DIA"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"description"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"SPDR DOW JONES INDUSTRIAL AVRG ETF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"instrumentId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1772542</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"closingPrice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>391.34</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"strikePrice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>355.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"underlyingCusip"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"78467X109"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"amount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-4.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>68.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"price"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"positionEffect"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"CLOSING"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"activityId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>81346852837</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"time"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2024-05-20T13:43:43+0000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"tradeDate"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2024-05-20T13:43:43+0000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"positionId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2483014350</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"netAmount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>704.33</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"amount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-0.65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"closingPrice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"expirationDate"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2024-06-14T04:00:00+0000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                            </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"rootSymbol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ADBE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"assetType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"EQUITY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"symbol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"ADBE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"instrumentId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1162591</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"closingPrice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>533.44</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"type"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"COMMON_STOCK"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"strikePrice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>525.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"underlyingCusip"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"00724F101"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"amount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>705.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"price"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>7.05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"activityId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>65805963893</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"time"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2024-05-02T04:33:32+0000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"description"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"Option Exercise"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"tradeDate"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2024-05-02T04:00:00+0000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"settlementDate"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"2024-05-02T04:00:00+0000"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"netAmount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2512500.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"assetType"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"INDEX"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"symbol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"$SPX"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"description"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"S &amp; P 500 INDEX"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"instrumentId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2725399</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"closingPrice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5464.62</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"amount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-500.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>2512500.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"price"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5025.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"activityId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>65921024313</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"positionId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1729164177</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"netAmount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-148.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"symbol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"QQQ_052024P410"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"description"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"INVESCO QQQ TRUST PUT May 410"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"instrumentId"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>183515036</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"strikePrice"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>410.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"amount"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"cost"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-145.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0451A5"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"price"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3B3B3B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF098658"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0.29</t>
     </r>
     <r>
       <rPr>
@@ -13563,7 +18378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -13575,6 +18390,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15466,8 +20282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43F40E76-7826-45F8-A31F-7D92D76E5F12}">
   <dimension ref="B4:AG171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15543,7 +20359,7 @@
       <c r="M9" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W9" s="1" t="s">
         <v>326</v>
       </c>
       <c r="AG9" s="1" t="s">
@@ -16569,7 +21385,7 @@
       <c r="X117" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AG117" s="4" t="s">
+      <c r="AG117" s="1" t="s">
         <v>272</v>
       </c>
     </row>
@@ -16921,4 +21737,1816 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99C7A11-41C2-4F65-9A92-33C8107EE97C}">
+  <dimension ref="B6:BA136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="W11" workbookViewId="0">
+      <selection activeCell="BA33" sqref="BA33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="AH20" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AH21" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="BA21" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="AH22" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="BA22" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="BA23" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="AH24" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="BA24" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="AH25" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="BA25" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="26" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BA26" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="27" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="AP27" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA27" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="BA28" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="2:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="AP29" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="BA29" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="2:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP30" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="BA30" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="2:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AP31" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="BA31" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="AP32" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="BA32" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="AP33" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="BA33" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP34" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="BA34" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP35" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BA35" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="BA36" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="37" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AP37" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="38" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="BA38" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AP39" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="BA39" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="R40" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AP40" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="BA40" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="41" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="R41" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AP41" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="BA41" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R42" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AP42" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="BA42" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="43" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP43" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BA43" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AP44" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="BA44" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="R45" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AP45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA45" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="AP46" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="BA46" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="47" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AP48" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="BA48" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP49" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="BA49" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="50" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R50" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AP50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA50" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AH51" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="BA51" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="52" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="R52" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH52" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA52" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="53" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="Z53" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="AH53" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="AJ53" s="3"/>
+      <c r="BA53" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="54" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z54" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="AH54" s="5"/>
+      <c r="BA54" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="Z55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH55" s="5"/>
+      <c r="BA55" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z56" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z57" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="R58" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH58" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="R59" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH59" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH60" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH61" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH62" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="63" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R63" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH63" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="64" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="R64" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AH64" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="R65" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="AH65" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="R66" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH66" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="R67" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AH67" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="R68" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AH68" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH69" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="R70" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AH70" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="R71" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH71" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="R72" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AH72" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R73" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH73" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH74" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH75" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R76" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH76" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="R77" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AH77" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH78" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AH79" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH80" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="R81" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AH81" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="AH82" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="R83" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH83" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B84" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="R84" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH84" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="R85" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="AH85" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="R86" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AH86" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B87" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="AH87" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B88" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="AH88" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B89" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="R89" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="AH89" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B90" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="AH90" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B91" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="R91" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="AH91" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B92" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="R92" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH92" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B93" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="R93" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="AH93" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B94" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="AH94" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="95" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B95" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="R95" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="AH95" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="96" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B96" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="R96" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AH96" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B97" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="R97" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AH97" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B98" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AH98" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B99" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="R99" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AH99" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R100" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH100" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B101" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="R101" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="AH101" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="102" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B102" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R102" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH102" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="103" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B103" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="R103" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH103" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="104" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="R104" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AH104" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="105" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AH105" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="106" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="AH106" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="107" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B107" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="R107" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AH107" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="108" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B108" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AH108" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="109" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B109" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AH109" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="110" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH110" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="111" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B111" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH111" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="112" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B112" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R112" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH112" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="113" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH113" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="114" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH114" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="115" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH115" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="116" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH116" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="117" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH117" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="118" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH118" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="119" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH119" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="120" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH120" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="121" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH121" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="122" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH122" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="123" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH123" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="124" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH124" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH125" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="126" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH126" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH127" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="128" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH128" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="129" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH129" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH130" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="131" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH131" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="132" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH132" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="133" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH133" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="134" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH134" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH135" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="136" spans="34:34" x14ac:dyDescent="0.25">
+      <c r="AH136" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Schwab Accounts Comparison.xlsx
+++ b/Schwab Accounts Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmont\git\mysql-db-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7340884C-81B8-47E0-9BC2-7FB66DC523B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ACF1BF-AA55-4AA5-A1B7-1D77A7078963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{64934D54-A41F-43A9-93DE-D7A9EAF4D357}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{64934D54-A41F-43A9-93DE-D7A9EAF4D357}"/>
   </bookViews>
   <sheets>
     <sheet name="Accounts" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="484">
   <si>
     <r>
       <t xml:space="preserve">    </t>
@@ -18378,7 +18378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -18387,10 +18387,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -21741,10 +21737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99C7A11-41C2-4F65-9A92-33C8107EE97C}">
-  <dimension ref="B6:BA136"/>
+  <dimension ref="B6:BK136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W11" workbookViewId="0">
-      <selection activeCell="BA33" sqref="BA33"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="AI40" sqref="AI40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21872,17 +21868,17 @@
         <v>365</v>
       </c>
     </row>
-    <row r="13" spans="2:34" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="R13" s="4" t="s">
+      <c r="R13" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="Z13" s="4" t="s">
+      <c r="Z13" s="1" t="s">
         <v>365</v>
       </c>
       <c r="AH13" s="1" t="s">
@@ -21916,9 +21912,15 @@
       <c r="R15" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="Z15" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
       <c r="AH15" s="1" t="s">
         <v>368</v>
       </c>
@@ -21940,7 +21942,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="17" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>370</v>
       </c>
@@ -21956,8 +21958,14 @@
       <c r="AH17" s="1" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="18" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="AP17" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="BA17" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
@@ -21979,8 +21987,11 @@
       <c r="BA18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -22002,8 +22013,11 @@
       <c r="BA19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>371</v>
       </c>
@@ -22025,8 +22039,11 @@
       <c r="BA20" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>372</v>
       </c>
@@ -22048,8 +22065,11 @@
       <c r="BA21" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="22" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK21" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="22" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>373</v>
       </c>
@@ -22071,8 +22091,11 @@
       <c r="BA22" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="23" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK22" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="23" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>374</v>
       </c>
@@ -22094,8 +22117,11 @@
       <c r="BA23" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="24" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK23" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="24" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>375</v>
       </c>
@@ -22117,8 +22143,11 @@
       <c r="BA24" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="25" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK24" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="25" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>376</v>
       </c>
@@ -22137,8 +22166,11 @@
       <c r="BA25" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="26" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK25" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>27</v>
       </c>
@@ -22160,8 +22192,11 @@
       <c r="BA26" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="27" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK26" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>377</v>
       </c>
@@ -22180,8 +22215,11 @@
       <c r="BA27" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="28" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK27" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>378</v>
       </c>
@@ -22200,57 +22238,75 @@
       <c r="BA28" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="29" spans="2:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
+      <c r="BK28" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="J29" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="R29" s="4" t="s">
+      <c r="R29" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AP29" s="4" t="s">
+      <c r="AP29" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="BA29" s="4" t="s">
+      <c r="BA29" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="30" spans="2:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AP30" s="4" t="s">
+      <c r="BK29" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="BA30" s="4" t="s">
+    </row>
+    <row r="30" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="AP30" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="31" spans="2:53" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AP31" s="4" t="s">
+      <c r="BA30" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="BK30" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="BA31" s="4" t="s">
+    </row>
+    <row r="31" spans="2:63" x14ac:dyDescent="0.25">
+      <c r="AP31" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="32" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BA31" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="BK31" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="32" spans="2:63" x14ac:dyDescent="0.25">
       <c r="AP32" s="1" t="s">
         <v>396</v>
       </c>
       <c r="BA32" s="1" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="33" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK32" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="2:63" x14ac:dyDescent="0.25">
       <c r="AP33" s="1" t="s">
         <v>397</v>
       </c>
       <c r="BA33" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="34" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK33" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
@@ -22266,8 +22322,11 @@
       <c r="BA34" s="1" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="35" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK34" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="35" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>13</v>
       </c>
@@ -22283,8 +22342,11 @@
       <c r="BA35" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="36" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK35" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="36" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
@@ -22300,8 +22362,11 @@
       <c r="BA36" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="37" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK36" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="37" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>371</v>
       </c>
@@ -22314,8 +22379,11 @@
       <c r="AP37" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="38" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK37" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="38" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>372</v>
       </c>
@@ -22331,8 +22399,11 @@
       <c r="BA38" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="39" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK38" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>373</v>
       </c>
@@ -22348,8 +22419,11 @@
       <c r="BA39" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="40" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK39" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="40" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>374</v>
       </c>
@@ -22365,8 +22439,11 @@
       <c r="BA40" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="41" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK40" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="41" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>375</v>
       </c>
@@ -22382,8 +22459,11 @@
       <c r="BA41" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="42" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK41" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>376</v>
       </c>
@@ -22399,8 +22479,11 @@
       <c r="BA42" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="43" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK42" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
@@ -22416,8 +22499,11 @@
       <c r="BA43" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="44" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK43" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>380</v>
       </c>
@@ -22433,8 +22519,11 @@
       <c r="BA44" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="45" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK44" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>381</v>
       </c>
@@ -22450,8 +22539,11 @@
       <c r="BA45" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="46" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK45" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="46" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>382</v>
       </c>
@@ -22467,8 +22559,11 @@
       <c r="BA46" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="47" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK46" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>55</v>
       </c>
@@ -22484,8 +22579,11 @@
       <c r="BA47" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK47" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="48" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>13</v>
       </c>
@@ -22501,8 +22599,11 @@
       <c r="BA48" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="49" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK48" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="49" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
@@ -22518,8 +22619,11 @@
       <c r="BA49" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="50" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK49" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>371</v>
       </c>
@@ -22535,8 +22639,11 @@
       <c r="BA50" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="51" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK50" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="51" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>372</v>
       </c>
@@ -22552,8 +22659,11 @@
       <c r="BA51" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="52" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK51" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="52" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>373</v>
       </c>
@@ -22569,8 +22679,11 @@
       <c r="BA52" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="53" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK52" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="53" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>374</v>
       </c>
@@ -22580,18 +22693,21 @@
       <c r="R53" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="Z53" s="4" t="s">
+      <c r="Z53" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="AH53" s="4" t="s">
+      <c r="AH53" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AJ53" s="3"/>
       <c r="BA53" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="54" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK53" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>375</v>
       </c>
@@ -22601,15 +22717,17 @@
       <c r="R54" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="Z54" s="4" t="s">
+      <c r="Z54" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="AH54" s="5"/>
       <c r="BA54" s="1" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="55" spans="2:53" x14ac:dyDescent="0.25">
+      <c r="BK54" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>376</v>
       </c>
@@ -22622,12 +22740,11 @@
       <c r="Z55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AH55" s="5"/>
       <c r="BA55" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>27</v>
       </c>
@@ -22641,7 +22758,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="57" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>383</v>
       </c>
@@ -22655,7 +22772,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="58" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
         <v>384</v>
       </c>
@@ -22669,7 +22786,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>385</v>
       </c>
@@ -22683,7 +22800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>55</v>
       </c>
@@ -22697,7 +22814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>13</v>
       </c>
@@ -22711,7 +22828,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="62" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>21</v>
       </c>
@@ -22725,7 +22842,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>371</v>
       </c>
@@ -22739,7 +22856,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="64" spans="2:53" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:63" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
         <v>372</v>
       </c>
